--- a/teams-and-rosters/CS320-Sp20-101-section-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp20-101-section-roster.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Last Name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>CS320 Section 101 (MWF 9:00 - 9:50)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -91,15 +88,6 @@
     <t>acanzano@ycp.edu</t>
   </si>
   <si>
-    <t>Greaves</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>rgreaves@ycp.edu</t>
-  </si>
-  <si>
     <t>Melendez</t>
   </si>
   <si>
@@ -127,16 +115,16 @@
     <t>ttao1@ycp.edu</t>
   </si>
   <si>
-    <t>Tice</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>ITMgt</t>
-  </si>
-  <si>
-    <t>mtice1@ycp.edu</t>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>Tribett</t>
+  </si>
+  <si>
+    <t>jtribett@ycp.edu</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,10 +1045,10 @@
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1069,29 +1057,29 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1103,15 +1091,15 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -1120,32 +1108,32 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -1154,15 +1142,15 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
@@ -1171,48 +1159,24 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1221,8 +1185,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" display="dchism@ycp.edu"/>
+    <hyperlink ref="E11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>